--- a/service/src/main/resources/templates/monthDataCompare.xlsx
+++ b/service/src/main/resources/templates/monthDataCompare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nohi/work/workspaces/ccb/code/ccb-timesheet/service/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6234CD2F-327B-624A-A84A-54AE642C1435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3BFDFC-DC67-6D41-8C19-A4893B325B5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="7800" windowWidth="27340" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2300" yWindow="4260" windowWidth="27340" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作量明细" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,10 @@
   </si>
   <si>
     <t>移动时差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算人天（行内）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,10 +98,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="180" formatCode="h:mm:ss;@"/>
-    <numFmt numFmtId="181" formatCode="0_ "/>
-    <numFmt numFmtId="182" formatCode="0.000000_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="0.000000_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -201,16 +205,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -492,21 +496,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18">
+    <row r="1" spans="1:16" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,10 +552,13 @@
         <v>11</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1">
+    <row r="2" spans="1:16" ht="18" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
@@ -564,10 +572,11 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="2"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="17">
+    <row r="3" spans="1:16" ht="17">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -581,6 +590,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
